--- a/league_strike_rate.xlsx
+++ b/league_strike_rate.xlsx
@@ -1,37 +1,201 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\FootballTrader v0.3.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5FE3FB-700F-480B-9DC6-D905029B069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>League</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Won</t>
+  </si>
+  <si>
+    <t>Draw</t>
+  </si>
+  <si>
+    <t>strike</t>
+  </si>
+  <si>
+    <t>pnl 4</t>
+  </si>
+  <si>
+    <t>pnl 3.5</t>
+  </si>
+  <si>
+    <t>Algeria, Ligue 1</t>
+  </si>
+  <si>
+    <t>Austria, Bundesliga</t>
+  </si>
+  <si>
+    <t>Belgium, Challenger Pro League</t>
+  </si>
+  <si>
+    <t>Bolivia, Primera División</t>
+  </si>
+  <si>
+    <t>Bosnia, Premijer Liga</t>
+  </si>
+  <si>
+    <t>China, League One</t>
+  </si>
+  <si>
+    <t>China, Super League</t>
+  </si>
+  <si>
+    <t>Denmark, 1. Division</t>
+  </si>
+  <si>
+    <t>England, League One</t>
+  </si>
+  <si>
+    <t>England, National League - North</t>
+  </si>
+  <si>
+    <t>England, Professional Development League</t>
+  </si>
+  <si>
+    <t>Estonia, Meistriliiga</t>
+  </si>
+  <si>
+    <t>Finland, Veikkausliiga</t>
+  </si>
+  <si>
+    <t>Finland, Ykkönen</t>
+  </si>
+  <si>
+    <t>France, Ligue 1</t>
+  </si>
+  <si>
+    <t>France, Ligue 2</t>
+  </si>
+  <si>
+    <t>Germany, 3. Liga</t>
+  </si>
+  <si>
+    <t>Greece, Super League 1</t>
+  </si>
+  <si>
+    <t>India, Indian Super League</t>
+  </si>
+  <si>
+    <t>Indonesia, Liga 1</t>
+  </si>
+  <si>
+    <t>Japan, J1 League</t>
+  </si>
+  <si>
+    <t>Luxembourg, National Division</t>
+  </si>
+  <si>
+    <t>Mexico, Liga MX</t>
+  </si>
+  <si>
+    <t>Northern-Ireland, Premiership</t>
+  </si>
+  <si>
+    <t>Norway, 2. Division - Group 2</t>
+  </si>
+  <si>
+    <t>Norway, Eliteserien</t>
+  </si>
+  <si>
+    <t>Peru, Primera División</t>
+  </si>
+  <si>
+    <t>Poland, Ekstraklasa</t>
+  </si>
+  <si>
+    <t>Portugal, Primeira Liga</t>
+  </si>
+  <si>
+    <t>Portugal, Segunda Liga</t>
+  </si>
+  <si>
+    <t>Scotland, League Two</t>
+  </si>
+  <si>
+    <t>Scotland, Premiership</t>
+  </si>
+  <si>
+    <t>Serbia, Super Liga</t>
+  </si>
+  <si>
+    <t>Singapore, Premier League</t>
+  </si>
+  <si>
+    <t>Slovakia, 2. liga</t>
+  </si>
+  <si>
+    <t>Slovenia, 1. SNL</t>
+  </si>
+  <si>
+    <t>South-Korea, K League 1</t>
+  </si>
+  <si>
+    <t>Sweden, Allsvenskan</t>
+  </si>
+  <si>
+    <t>Switzerland, Super League</t>
+  </si>
+  <si>
+    <t>Thailand, Thai League 1</t>
+  </si>
+  <si>
+    <t>Tunisia, Ligue 1</t>
+  </si>
+  <si>
+    <t>Turkey, Süper Lig</t>
+  </si>
+  <si>
+    <t>Ukraine, Premier League</t>
+  </si>
+  <si>
+    <t>Venezuela, Primera División</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +210,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,1285 +534,1182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>League</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Won</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>strike</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>pnl 4</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>pnl 3.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Algeria, Ligue 1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>34</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>9</v>
       </c>
-      <c r="F2" t="n">
-        <v>79.06999999999999</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>79.069999999999993</v>
+      </c>
+      <c r="G2">
         <v>632</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>1082</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>7</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Austria, Bundesliga</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>19</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>16</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" t="n">
-        <v>84.20999999999999</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>84.21</v>
+      </c>
+      <c r="G3">
         <v>668</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>818</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>9</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Belgium, Challenger Pro League</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>17</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>85</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>766</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>916</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>11</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bolivia, Primera División</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>21</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>16</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>76.19</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>68</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>318</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>12</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bosnia, Premijer Liga</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
         <v>32</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>27</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>84.38</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1146</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>1396</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>21</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>China, League One</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>15</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>83.33</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>570</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>720</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>22</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>China, Super League</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>14</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" t="n">
-        <v>82.34999999999999</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8">
+        <v>82.35</v>
+      </c>
+      <c r="G8">
         <v>472</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>622</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>27</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Denmark, 1. Division</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>90.91</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>680</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>730</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>35</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>England, League One</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
         <v>87</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>73</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>14</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>83.91</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>2954</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>3654</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>38</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>England, National League - North</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
         <v>73</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>60</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>13</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>82.19</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1980</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>2630</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>42</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>England, Professional Development League</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
         <v>73</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>60</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>13</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>82.19</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1980</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>2630</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>44</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Estonia, Meistriliiga</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
         <v>11</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>10</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>90.91</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>680</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>730</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>49</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Finland, Veikkausliiga</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
         <v>12</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>10</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>83.33</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>380</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>480</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>50</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Finland, Ykkönen</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
         <v>12</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>83.33</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>380</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>480</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>52</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>France, Ligue 1</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
         <v>43</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>38</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>88.37</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>2224</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>2474</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>53</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>France, Ligue 2</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
         <v>46</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>38</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>8</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>82.61</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>1324</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>1724</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>56</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Germany, 3. Liga</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
         <v>51</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>42</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>9</v>
       </c>
-      <c r="F18" t="n">
-        <v>82.34999999999999</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18">
+        <v>82.35</v>
+      </c>
+      <c r="G18">
         <v>1416</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>1866</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>58</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Greece, Super League 1</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
         <v>16</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>14</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>87.5</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>772</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>872</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>63</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>India, Indian Super League</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
         <v>14</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>11</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="F20" t="n">
-        <v>78.56999999999999</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="F20">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="G20">
         <v>178</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>328</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>64</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Indonesia, Liga 1</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
         <v>35</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>30</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>5</v>
       </c>
-      <c r="F21" t="n">
-        <v>85.70999999999999</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21">
+        <v>85.71</v>
+      </c>
+      <c r="G21">
         <v>1440</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>1690</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>69</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Japan, J1 League</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
         <v>36</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>29</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>7</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>80.56</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>742</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>1092</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>77</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Luxembourg, National Division</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
         <v>29</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>23</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>6</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>79.31</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>454</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>754</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>79</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Mexico, Liga MX</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
         <v>66</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>55</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>11</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>83.33</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>2090</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>2640</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>85</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Northern-Ireland, Premiership</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
         <v>12</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>10</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>83.33</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>380</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>480</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>88</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Norway, 2. Division - Group 2</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
         <v>14</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>12</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" t="n">
-        <v>85.70999999999999</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="F26">
+        <v>85.71</v>
+      </c>
+      <c r="G26">
         <v>576</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>676</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>89</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Norway, Eliteserien</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
         <v>20</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>16</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>4</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>80</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>368</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>568</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>94</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Peru, Primera División</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
         <v>48</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>39</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>9</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>81.25</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>1122</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>1572</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>95</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Poland, Ekstraklasa</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
         <v>63</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>51</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>12</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>80.95</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>1398</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>1998</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>97</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Portugal, Primeira Liga</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
         <v>34</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>26</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>76.47</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>148</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>548</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>98</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Portugal, Segunda Liga</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
         <v>49</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>39</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>79.59</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>822</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>1322</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>104</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Scotland, League Two</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
         <v>21</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>19</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>90.48</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>1262</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>1362</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>105</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Scotland, Premiership</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
         <v>17</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>15</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" t="n">
-        <v>88.23999999999999</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="F33">
+        <v>88.24</v>
+      </c>
+      <c r="G33">
         <v>870</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>970</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>106</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Serbia, Super Liga</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
         <v>34</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>27</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>7</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>79.41</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>546</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>896</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>107</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Singapore, Premier League</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
         <v>16</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>14</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>2</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>87.5</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>772</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>872</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>108</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Slovakia, 2. liga</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36">
         <v>22</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>19</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>3</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>86.36</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>962</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>1112</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>110</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Slovenia, 1. SNL</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
         <v>23</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>18</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>5</v>
       </c>
-      <c r="F37" t="n">
-        <v>78.26000000000001</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="F37">
+        <v>78.260000000000005</v>
+      </c>
+      <c r="G37">
         <v>264</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>514</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>112</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>South-Korea, K League 1</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
         <v>42</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>35</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>7</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>83.33</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>1330</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>1680</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>117</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Sweden, Allsvenskan</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
         <v>25</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>21</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>4</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>84</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>858</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>1058</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>123</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Switzerland, Super League</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
         <v>30</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>24</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>6</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>80</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>552</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>852</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>125</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Thailand, Thai League 1</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
         <v>37</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>31</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>6</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>83.78</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>1238</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>1538</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>126</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Tunisia, Ligue 1</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
         <v>18</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>15</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>3</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>83.33</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>570</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>720</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>128</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Turkey, Süper Lig</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43">
         <v>42</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>33</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>9</v>
       </c>
-      <c r="F43" t="n">
-        <v>78.56999999999999</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="F43">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="G43">
         <v>534</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>984</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>131</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Ukraine, Premier League</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44">
         <v>21</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>18</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>3</v>
       </c>
-      <c r="F44" t="n">
-        <v>85.70999999999999</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="F44">
+        <v>85.71</v>
+      </c>
+      <c r="G44">
         <v>864</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>1014</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>133</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Venezuela, Primera División</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45">
         <v>46</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>35</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>11</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>76.09</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>130</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>680</v>
       </c>
     </row>

--- a/league_strike_rate.xlsx
+++ b/league_strike_rate.xlsx
@@ -480,666 +480,666 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>76.92</v>
+        <v>78.18000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>240</v>
+        <v>614</v>
       </c>
       <c r="H2" t="n">
-        <v>690</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azerbaijan, Premyer Liqa</t>
+          <t>Belgium, Challenger Pro League</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
+        <v>42</v>
+      </c>
+      <c r="E3" t="n">
         <v>10</v>
       </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
       <c r="F3" t="n">
-        <v>76.92</v>
+        <v>80.77</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>1116</v>
       </c>
       <c r="H3" t="n">
-        <v>230</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Belgium, Challenger Pro League</t>
+          <t>Bolivia, Primera División</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>83.78</v>
+        <v>87.3</v>
       </c>
       <c r="G4" t="n">
-        <v>1238</v>
+        <v>2990</v>
       </c>
       <c r="H4" t="n">
-        <v>1538</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Belgium, Jupiler Pro League</t>
+          <t>Bosnia, Premijer Liga</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>76</v>
+        <v>76.36</v>
       </c>
       <c r="G5" t="n">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="H5" t="n">
-        <v>724</v>
+        <v>866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bolivia, Primera División</t>
+          <t>Chile, Primera División</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>86.95999999999999</v>
+        <v>78.02</v>
       </c>
       <c r="G6" t="n">
-        <v>2120</v>
+        <v>958</v>
       </c>
       <c r="H6" t="n">
-        <v>2420</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bosnia, Premijer Liga</t>
+          <t>China, Super League</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>80</v>
+        <v>75.61</v>
       </c>
       <c r="G7" t="n">
-        <v>828</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>1278</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Croatia, HNL</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>41</v>
+      </c>
+      <c r="E8" t="n">
         <v>13</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Brazil, Serie A</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>89</v>
-      </c>
-      <c r="D8" t="n">
-        <v>68</v>
-      </c>
-      <c r="E8" t="n">
-        <v>21</v>
-      </c>
       <c r="F8" t="n">
-        <v>76.40000000000001</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>364</v>
+        <v>118</v>
       </c>
       <c r="H8" t="n">
-        <v>1414</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chile, Primera División</t>
+          <t>Cyprus, 1. Division</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>78.65000000000001</v>
+        <v>90.91</v>
       </c>
       <c r="G9" t="n">
-        <v>1160</v>
+        <v>680</v>
       </c>
       <c r="H9" t="n">
-        <v>2110</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>China, Super League</t>
+          <t>Denmark, Superliga</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>79.41</v>
+        <v>79.31</v>
       </c>
       <c r="G10" t="n">
-        <v>546</v>
+        <v>908</v>
       </c>
       <c r="H10" t="n">
-        <v>896</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Denmark, Superliga</t>
+          <t>England, FA WSL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>82.22</v>
+        <v>80.95</v>
       </c>
       <c r="G11" t="n">
-        <v>1226</v>
+        <v>932</v>
       </c>
       <c r="H11" t="n">
-        <v>1626</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>England, FA WSL</t>
+          <t>England, League One</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="F12" t="n">
-        <v>76.92</v>
+        <v>81.09</v>
       </c>
       <c r="G12" t="n">
-        <v>160</v>
+        <v>4574</v>
       </c>
       <c r="H12" t="n">
-        <v>460</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>England, National League - North</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>178</v>
+      </c>
+      <c r="D13" t="n">
+        <v>141</v>
+      </c>
+      <c r="E13" t="n">
         <v>37</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>England, League One</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>165</v>
-      </c>
-      <c r="D13" t="n">
-        <v>135</v>
-      </c>
-      <c r="E13" t="n">
-        <v>30</v>
-      </c>
       <c r="F13" t="n">
-        <v>81.81999999999999</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>4230</v>
+        <v>2718</v>
       </c>
       <c r="H13" t="n">
-        <v>5730</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>England, National League - North</t>
+          <t>England, Professional Development League</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="D14" t="n">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F14" t="n">
-        <v>78.56999999999999</v>
+        <v>78.22</v>
       </c>
       <c r="G14" t="n">
-        <v>1958</v>
+        <v>1142</v>
       </c>
       <c r="H14" t="n">
-        <v>3608</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>England, Professional Development League</t>
+          <t>Estonia, Meistriliiga</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>79.34999999999999</v>
+        <v>92.31</v>
       </c>
       <c r="G15" t="n">
-        <v>1454</v>
+        <v>1752</v>
       </c>
       <c r="H15" t="n">
-        <v>2404</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Estonia, Meistriliiga</t>
+          <t>Finland, Veikkausliiga</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>94.44</v>
+        <v>75.86</v>
       </c>
       <c r="G16" t="n">
-        <v>1366</v>
+        <v>56</v>
       </c>
       <c r="H16" t="n">
-        <v>1416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Finland, Veikkausliiga</t>
+          <t>Finland, Ykkönen</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>75.86</v>
+        <v>75.61</v>
       </c>
       <c r="G17" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="H17" t="n">
-        <v>406</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Finland, Ykkönen</t>
+          <t>France, Ligue 1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>75.61</v>
+        <v>85.23</v>
       </c>
       <c r="G18" t="n">
-        <v>38</v>
+        <v>3450</v>
       </c>
       <c r="H18" t="n">
-        <v>538</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>France, Ligue 1</t>
+          <t>Germany, 2. Bundesliga</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D19" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>90.91</v>
+        <v>78.72</v>
       </c>
       <c r="G19" t="n">
-        <v>4080</v>
+        <v>1252</v>
       </c>
       <c r="H19" t="n">
-        <v>4380</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Germany, 2. Bundesliga</t>
+          <t>Germany, 3. Liga</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>78.56999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>890</v>
+        <v>1136</v>
       </c>
       <c r="H20" t="n">
-        <v>1640</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Germany, 3. Liga</t>
+          <t>Greece, Super League 1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D21" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>82.19</v>
+        <v>85</v>
       </c>
       <c r="G21" t="n">
-        <v>1980</v>
+        <v>1532</v>
       </c>
       <c r="H21" t="n">
-        <v>2630</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Greece, Super League 1</t>
+          <t>Iceland, 1. Deild</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>87.5</v>
+        <v>78.72</v>
       </c>
       <c r="G22" t="n">
-        <v>1158</v>
+        <v>626</v>
       </c>
       <c r="H22" t="n">
-        <v>1308</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Iceland, 1. Deild</t>
+          <t>India, Indian Super League</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>78.72</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>626</v>
+        <v>178</v>
       </c>
       <c r="H23" t="n">
-        <v>1126</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>India, Indian Super League</t>
+          <t>Indonesia, Liga 1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>78.56999999999999</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>178</v>
+        <v>1478</v>
       </c>
       <c r="H24" t="n">
-        <v>328</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Indonesia, Liga 1</t>
+          <t>Japan, J3 League</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F25" t="n">
-        <v>81.54000000000001</v>
+        <v>76.22</v>
       </c>
       <c r="G25" t="n">
-        <v>1594</v>
+        <v>482</v>
       </c>
       <c r="H25" t="n">
-        <v>2194</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D26" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E26" t="n">
         <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>76.47</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>222</v>
+        <v>712</v>
       </c>
       <c r="H26" t="n">
-        <v>822</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>76.67</v>
+        <v>76.47</v>
       </c>
       <c r="G27" t="n">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H27" t="n">
-        <v>504</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>86.67</v>
+        <v>80.95</v>
       </c>
       <c r="G28" t="n">
-        <v>674</v>
+        <v>466</v>
       </c>
       <c r="H28" t="n">
-        <v>774</v>
+        <v>666</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>78.95</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>270</v>
+        <v>564</v>
       </c>
       <c r="H29" t="n">
-        <v>470</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30">
@@ -1264,414 +1264,414 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D30" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>78.05</v>
+        <v>77.27</v>
       </c>
       <c r="G30" t="n">
-        <v>436</v>
+        <v>332</v>
       </c>
       <c r="H30" t="n">
-        <v>886</v>
+        <v>832</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mexico, Liga MX</t>
+          <t>Malaysia, Super League</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D31" t="n">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="E31" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>81.90000000000001</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>2728</v>
+        <v>44</v>
       </c>
       <c r="H31" t="n">
-        <v>3678</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Northern-Ireland, Premiership</t>
+          <t>Mexico, Liga MX</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="D32" t="n">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F32" t="n">
-        <v>89.47</v>
+        <v>80.45</v>
       </c>
       <c r="G32" t="n">
-        <v>2132</v>
+        <v>2686</v>
       </c>
       <c r="H32" t="n">
-        <v>2332</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Norway, Eliteserien</t>
+          <t>Myanmar, National League</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D33" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>81.48</v>
+        <v>83.33</v>
       </c>
       <c r="G33" t="n">
-        <v>1312</v>
+        <v>380</v>
       </c>
       <c r="H33" t="n">
-        <v>1812</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Paraguay, Division Profesional - Clausura</t>
+          <t>Northern-Ireland, Premiership</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D34" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
-        <v>77.78</v>
+        <v>88</v>
       </c>
       <c r="G34" t="n">
-        <v>430</v>
+        <v>2512</v>
       </c>
       <c r="H34" t="n">
-        <v>930</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Poland, Ekstraklasa</t>
+          <t>Norway, 2. Division - Group 1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>76.84999999999999</v>
+        <v>90.91</v>
       </c>
       <c r="G35" t="n">
-        <v>634</v>
+        <v>680</v>
       </c>
       <c r="H35" t="n">
-        <v>1884</v>
+        <v>730</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Portugal, Primeira Liga</t>
+          <t>Norway, Eliteserien</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D36" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F36" t="n">
-        <v>78.95</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>810</v>
+        <v>1772</v>
       </c>
       <c r="H36" t="n">
-        <v>1410</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Portugal, Segunda Liga</t>
+          <t>Paraguay, Division Profesional - Clausura</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D37" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E37" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F37" t="n">
-        <v>76.70999999999999</v>
+        <v>76.36</v>
       </c>
       <c r="G37" t="n">
-        <v>388</v>
+        <v>216</v>
       </c>
       <c r="H37" t="n">
-        <v>1238</v>
+        <v>866</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Scotland, League Two</t>
+          <t>Portugal, Primeira Liga</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D38" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F38" t="n">
-        <v>84.62</v>
+        <v>75.34</v>
       </c>
       <c r="G38" t="n">
-        <v>1434</v>
+        <v>-10</v>
       </c>
       <c r="H38" t="n">
-        <v>1734</v>
+        <v>890</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Serbia, Super Liga</t>
+          <t>Scotland, League One</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D39" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F39" t="n">
-        <v>76.92</v>
+        <v>77.97</v>
       </c>
       <c r="G39" t="n">
-        <v>400</v>
+        <v>608</v>
       </c>
       <c r="H39" t="n">
-        <v>1150</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Singapore, Premier League</t>
+          <t>Scotland, League Two</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D40" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>84.20999999999999</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
-        <v>668</v>
+        <v>522</v>
       </c>
       <c r="H40" t="n">
-        <v>818</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Slovakia, 2. liga</t>
+          <t>Serbia, Super Liga</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D41" t="n">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F41" t="n">
-        <v>80.77</v>
+        <v>77.11</v>
       </c>
       <c r="G41" t="n">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="H41" t="n">
-        <v>808</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Slovenia, 1. SNL</t>
+          <t>Singapore, Premier League</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D42" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>82.61</v>
+        <v>86.36</v>
       </c>
       <c r="G42" t="n">
-        <v>1324</v>
+        <v>962</v>
       </c>
       <c r="H42" t="n">
-        <v>1724</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>South-Korea, K League 1</t>
+          <t>Slovenia, 1. SNL</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D43" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" t="n">
-        <v>80.3</v>
+        <v>80</v>
       </c>
       <c r="G43" t="n">
-        <v>1294</v>
+        <v>1104</v>
       </c>
       <c r="H43" t="n">
-        <v>1944</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>South-Korea, K League 2</t>
+          <t>South-Korea, K League 1</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D44" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E44" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F44" t="n">
-        <v>77.03</v>
+        <v>76.47</v>
       </c>
       <c r="G44" t="n">
-        <v>486</v>
+        <v>370</v>
       </c>
       <c r="H44" t="n">
-        <v>1336</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="45">
@@ -1684,106 +1684,106 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D45" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E45" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F45" t="n">
-        <v>78.56999999999999</v>
+        <v>78.95</v>
       </c>
       <c r="G45" t="n">
-        <v>712</v>
+        <v>1080</v>
       </c>
       <c r="H45" t="n">
-        <v>1312</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Switzerland, Super League</t>
+          <t>Sweden, Superettan</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="D46" t="n">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E46" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F46" t="n">
-        <v>81.25</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>1122</v>
+        <v>352</v>
       </c>
       <c r="H46" t="n">
-        <v>1572</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Thailand, Thai League 1</t>
+          <t>Switzerland, Super League</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D47" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E47" t="n">
         <v>11</v>
       </c>
       <c r="F47" t="n">
-        <v>79.63</v>
+        <v>82.54000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>914</v>
+        <v>1796</v>
       </c>
       <c r="H47" t="n">
-        <v>1464</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Turkey, Süper Lig</t>
+          <t>Tanzania, Ligi kuu Bara</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D48" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="E48" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>77.14</v>
+        <v>84.62</v>
       </c>
       <c r="G48" t="n">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="H48" t="n">
-        <v>1292</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
+        <v>45</v>
+      </c>
+      <c r="D49" t="n">
         <v>34</v>
       </c>
-      <c r="D49" t="n">
-        <v>27</v>
-      </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F49" t="n">
-        <v>79.41</v>
+        <v>75.56</v>
       </c>
       <c r="G49" t="n">
-        <v>546</v>
+        <v>32</v>
       </c>
       <c r="H49" t="n">
-        <v>896</v>
+        <v>582</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D50" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F50" t="n">
-        <v>80</v>
+        <v>79.34999999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>1380</v>
+        <v>1454</v>
       </c>
       <c r="H50" t="n">
-        <v>2130</v>
+        <v>2404</v>
       </c>
     </row>
   </sheetData>
